--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>45027</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44776</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44781</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44783</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,14 +2238,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 16171-2023</t>
+          <t>A 32640-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45027</v>
+        <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,14 +2257,19 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>12.2</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2291,393 +2296,389 @@
         <v>3</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Kornknutmossa
+Murgröna
+Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32640-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32640-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32640-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32640-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32640-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32640-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 16171-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45027</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Sårläka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 16171-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 16171-2023.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 16171-2023.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 16171-2023.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 16171-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 16171-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 57207-2018</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>43403</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>3.6</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Luddvicker
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57207-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57207-2018.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57207-2018.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57207-2018.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57207-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57207-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 31733-2022</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44776</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>6.9</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Ask
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 31733-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 31733-2022.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 31733-2022.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 31733-2022.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 31733-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 31733-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 32174-2022</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44781</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>1.6</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Tvåblad</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32174-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32174-2022.png")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32174-2022.docx")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32174-2022.docx")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32174-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32174-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 32640-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44783</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Kornknutmossa
-Murgröna</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32640-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32640-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32640-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32640-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32640-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32640-2022.docx")</f>
         <v/>
       </c>
     </row>
@@ -2691,7 +2692,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2783,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,7 +2869,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2960,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3046,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,7 +3131,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3216,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3301,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3386,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3471,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3556,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3641,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3731,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3816,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3900,7 +3901,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3985,7 +3986,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4070,7 +4071,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4155,7 +4156,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,7 +4241,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4331,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4416,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4501,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4585,7 +4586,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4671,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4727,7 +4728,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4784,7 +4785,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4841,7 +4842,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4898,7 +4899,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4955,7 +4956,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5012,7 +5013,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5069,7 +5070,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5131,7 +5132,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5188,7 +5189,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5245,7 +5246,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5302,7 +5303,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5359,7 +5360,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5416,7 +5417,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5473,7 +5474,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5530,7 +5531,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5587,7 +5588,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5644,7 +5645,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5701,7 +5702,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5758,7 +5759,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5815,7 +5816,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5872,7 +5873,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5929,7 +5930,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5986,7 +5987,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6043,7 +6044,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6101,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6158,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6219,7 +6220,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6276,7 +6277,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6333,7 +6334,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6395,7 +6396,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6457,7 +6458,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6519,7 +6520,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6581,7 +6582,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6643,7 +6644,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6705,7 +6706,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6767,7 +6768,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6829,7 +6830,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6891,7 +6892,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6953,7 +6954,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7015,7 +7016,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7077,7 +7078,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7134,7 +7135,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7191,7 +7192,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7248,7 +7249,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7305,7 +7306,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7362,7 +7363,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7419,7 +7420,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7476,7 +7477,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7538,7 +7539,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7600,7 +7601,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7657,7 +7658,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7714,7 +7715,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7771,7 +7772,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7828,7 +7829,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7885,7 +7886,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7942,7 +7943,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7999,7 +8000,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8056,7 +8057,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8113,7 +8114,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8170,7 +8171,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8232,7 +8233,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8289,7 +8290,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8346,7 +8347,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8403,7 +8404,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8460,7 +8461,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8522,7 +8523,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8584,7 +8585,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8646,7 +8647,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8708,7 +8709,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8770,7 +8771,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8832,7 +8833,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8894,7 +8895,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8951,7 +8952,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9008,7 +9009,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9065,7 +9066,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9122,7 +9123,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9179,7 +9180,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9236,7 +9237,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9293,7 +9294,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9350,7 +9351,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9407,7 +9408,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9464,7 +9465,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 43587-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 43587-2021.xlsx", "A 43587-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 43587-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 43587-2021.png", "A 43587-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 43587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 43587-2021.docx", "A 43587-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 43587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 43587-2021.docx", "A 43587-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 43587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 43587-2021.docx", "A 43587-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 43587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 43587-2021.docx", "A 43587-2021")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,27 +739,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 23370-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 23370-2021.xlsx", "A 23370-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 23370-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 23370-2021.png", "A 23370-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 23370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 23370-2021.docx", "A 23370-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 23370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 23370-2021.docx", "A 23370-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 23370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 23370-2021.docx", "A 23370-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 23370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 23370-2021.docx", "A 23370-2021")</f>
         <v/>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,27 +838,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 14713-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 14713-2020.xlsx", "A 14713-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 14713-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 14713-2020.png", "A 14713-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 14713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 14713-2020.docx", "A 14713-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 14713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 14713-2020.docx", "A 14713-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 14713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 14713-2020.docx", "A 14713-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 14713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 14713-2020.docx", "A 14713-2020")</f>
         <v/>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,27 +931,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 67432-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 67432-2021.xlsx", "A 67432-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 67432-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 67432-2021.png", "A 67432-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 67432-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 67432-2021.docx", "A 67432-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 67432-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 67432-2021.docx", "A 67432-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 67432-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 67432-2021.docx", "A 67432-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 67432-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 67432-2021.docx", "A 67432-2021")</f>
         <v/>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,27 +1024,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 37421-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 37421-2022.xlsx", "A 37421-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 37421-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 37421-2022.png", "A 37421-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 37421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 37421-2022.docx", "A 37421-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 37421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 37421-2022.docx", "A 37421-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 37421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 37421-2022.docx", "A 37421-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 37421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 37421-2022.docx", "A 37421-2022")</f>
         <v/>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,27 +1121,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 14767-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 14767-2020.xlsx", "A 14767-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 14767-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 14767-2020.png", "A 14767-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 14767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 14767-2020.docx", "A 14767-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 14767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 14767-2020.docx", "A 14767-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 14767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 14767-2020.docx", "A 14767-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 14767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 14767-2020.docx", "A 14767-2020")</f>
         <v/>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,27 +1211,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 12792-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 12792-2019.xlsx", "A 12792-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 12792-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 12792-2019.png", "A 12792-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 12792-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 12792-2019.docx", "A 12792-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 12792-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 12792-2019.docx", "A 12792-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 12792-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 12792-2019.docx", "A 12792-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 12792-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 12792-2019.docx", "A 12792-2019")</f>
         <v/>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,27 +1301,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 27046-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 27046-2019.xlsx", "A 27046-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 27046-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 27046-2019.png", "A 27046-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 27046-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 27046-2019.docx", "A 27046-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 27046-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 27046-2019.docx", "A 27046-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 27046-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 27046-2019.docx", "A 27046-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 27046-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 27046-2019.docx", "A 27046-2019")</f>
         <v/>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,27 +1396,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57656-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57656-2020.xlsx", "A 57656-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57656-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57656-2020.png", "A 57656-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57656-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57656-2020.docx", "A 57656-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57656-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57656-2020.docx", "A 57656-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57656-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57656-2020.docx", "A 57656-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57656-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57656-2020.docx", "A 57656-2020")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,27 +1491,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32178-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32178-2022.xlsx", "A 32178-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32178-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32178-2022.png", "A 32178-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32178-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32178-2022.docx", "A 32178-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32178-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32178-2022.docx", "A 32178-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32178-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32178-2022.docx", "A 32178-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32178-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32178-2022.docx", "A 32178-2022")</f>
         <v/>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,27 +1580,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 4881-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 4881-2021.xlsx", "A 4881-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 4881-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 4881-2021.png", "A 4881-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 4881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 4881-2021.docx", "A 4881-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 4881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 4881-2021.docx", "A 4881-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 4881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 4881-2021.docx", "A 4881-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 4881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 4881-2021.docx", "A 4881-2021")</f>
         <v/>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1674,27 +1674,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 31837-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 31837-2021.xlsx", "A 31837-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 31837-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 31837-2021.png", "A 31837-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 31837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 31837-2021.docx", "A 31837-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 31837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 31837-2021.docx", "A 31837-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 31837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 31837-2021.docx", "A 31837-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 31837-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 31837-2021.docx", "A 31837-2021")</f>
         <v/>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,27 +1768,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 34948-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 34948-2022.xlsx", "A 34948-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 34948-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 34948-2022.png", "A 34948-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 34948-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 34948-2022.docx", "A 34948-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 34948-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 34948-2022.docx", "A 34948-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 34948-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 34948-2022.docx", "A 34948-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 34948-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 34948-2022.docx", "A 34948-2022")</f>
         <v/>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1856,27 +1856,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 41561-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 41561-2020.xlsx", "A 41561-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 41561-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 41561-2020.png", "A 41561-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 41561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 41561-2020.docx", "A 41561-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 41561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 41561-2020.docx", "A 41561-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 41561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 41561-2020.docx", "A 41561-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 41561-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 41561-2020.docx", "A 41561-2020")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1944,27 +1944,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 55210-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 55210-2020.xlsx", "A 55210-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 55210-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 55210-2020.png", "A 55210-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 55210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 55210-2020.docx", "A 55210-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 55210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 55210-2020.docx", "A 55210-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 55210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 55210-2020.docx", "A 55210-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 55210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 55210-2020.docx", "A 55210-2020")</f>
         <v/>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,27 +2032,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 50720-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 50720-2021.xlsx", "A 50720-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 50720-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 50720-2021.png", "A 50720-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 50720-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 50720-2021.docx", "A 50720-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 50720-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 50720-2021.docx", "A 50720-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 50720-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 50720-2021.docx", "A 50720-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 50720-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 50720-2021.docx", "A 50720-2021")</f>
         <v/>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2119,27 +2119,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 48149-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 48149-2019.xlsx", "A 48149-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 48149-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 48149-2019.png", "A 48149-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 48149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 48149-2019.docx", "A 48149-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 48149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 48149-2019.docx", "A 48149-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 48149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 48149-2019.docx", "A 48149-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 48149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 48149-2019.docx", "A 48149-2019")</f>
         <v/>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,27 +2211,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 58231-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 58231-2020.xlsx", "A 58231-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 58231-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 58231-2020.png", "A 58231-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 58231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 58231-2020.docx", "A 58231-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 58231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 58231-2020.docx", "A 58231-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 58231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 58231-2020.docx", "A 58231-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 58231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 58231-2020.docx", "A 58231-2020")</f>
         <v/>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2303,27 +2303,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32640-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32640-2022.xlsx", "A 32640-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32640-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32640-2022.png", "A 32640-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32640-2022.docx", "A 32640-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32640-2022.docx", "A 32640-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32640-2022.docx", "A 32640-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32640-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32640-2022.docx", "A 32640-2022")</f>
         <v/>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2390,27 +2390,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 16171-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 16171-2023.xlsx", "A 16171-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 16171-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 16171-2023.png", "A 16171-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 16171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 16171-2023.docx", "A 16171-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 16171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 16171-2023.docx", "A 16171-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 16171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 16171-2023.docx", "A 16171-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 16171-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 16171-2023.docx", "A 16171-2023")</f>
         <v/>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,27 +2476,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57207-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57207-2018.xlsx", "A 57207-2018")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57207-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57207-2018.png", "A 57207-2018")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57207-2018.docx", "A 57207-2018")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57207-2018.docx", "A 57207-2018")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57207-2018.docx", "A 57207-2018")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57207-2018.docx", "A 57207-2018")</f>
         <v/>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2567,27 +2567,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 31733-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 31733-2022.xlsx", "A 31733-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 31733-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 31733-2022.png", "A 31733-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 31733-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 31733-2022.docx", "A 31733-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 31733-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 31733-2022.docx", "A 31733-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 31733-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 31733-2022.docx", "A 31733-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 31733-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 31733-2022.docx", "A 31733-2022")</f>
         <v/>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,27 +2658,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32174-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 32174-2022.xlsx", "A 32174-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32174-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 32174-2022.png", "A 32174-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32174-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 32174-2022.docx", "A 32174-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32174-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 32174-2022.docx", "A 32174-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32174-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 32174-2022.docx", "A 32174-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32174-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 32174-2022.docx", "A 32174-2022")</f>
         <v/>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,27 +2749,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 34944-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 34944-2022.xlsx", "A 34944-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 34944-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 34944-2022.png", "A 34944-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 34944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 34944-2022.docx", "A 34944-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 34944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 34944-2022.docx", "A 34944-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 34944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 34944-2022.docx", "A 34944-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 34944-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 34944-2022.docx", "A 34944-2022")</f>
         <v/>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,27 +2835,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 43756-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 43756-2022.xlsx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 43756-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 43756-2022.png", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 43756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 43756-2022.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 43756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 43756-2022.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 43756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 43756-2022.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 43756-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 43756-2022.docx", "A 43756-2022")</f>
         <v/>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2926,27 +2926,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 44008-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 44008-2022.xlsx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 44008-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 44008-2022.png", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 44008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 44008-2022.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 44008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 44008-2022.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 44008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 44008-2022.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 44008-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 44008-2022.docx", "A 44008-2022")</f>
         <v/>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3012,27 +3012,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 4164-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 4164-2023.xlsx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 4164-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 4164-2023.png", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 4164-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 4164-2023.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 4164-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 4164-2023.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 4164-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 4164-2023.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 4164-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 4164-2023.docx", "A 4164-2023")</f>
         <v/>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3097,27 +3097,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 55105-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 55105-2018.xlsx", "A 55105-2018")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 55105-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 55105-2018.png", "A 55105-2018")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 55105-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 55105-2018.docx", "A 55105-2018")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 55105-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 55105-2018.docx", "A 55105-2018")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 55105-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 55105-2018.docx", "A 55105-2018")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 55105-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 55105-2018.docx", "A 55105-2018")</f>
         <v/>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3182,27 +3182,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57216-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57216-2018.xlsx", "A 57216-2018")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57216-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57216-2018.png", "A 57216-2018")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57216-2018.docx", "A 57216-2018")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57216-2018.docx", "A 57216-2018")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57216-2018.docx", "A 57216-2018")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57216-2018.docx", "A 57216-2018")</f>
         <v/>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3267,27 +3267,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 23194-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 23194-2019.xlsx", "A 23194-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 23194-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 23194-2019.png", "A 23194-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 23194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 23194-2019.docx", "A 23194-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 23194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 23194-2019.docx", "A 23194-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 23194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 23194-2019.docx", "A 23194-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 23194-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 23194-2019.docx", "A 23194-2019")</f>
         <v/>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3352,27 +3352,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57756-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 57756-2019.xlsx", "A 57756-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57756-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 57756-2019.png", "A 57756-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57756-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 57756-2019.docx", "A 57756-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57756-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 57756-2019.docx", "A 57756-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57756-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 57756-2019.docx", "A 57756-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57756-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 57756-2019.docx", "A 57756-2019")</f>
         <v/>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3437,27 +3437,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 58275-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 58275-2019.xlsx", "A 58275-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 58275-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 58275-2019.png", "A 58275-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 58275-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 58275-2019.docx", "A 58275-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 58275-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 58275-2019.docx", "A 58275-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 58275-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 58275-2019.docx", "A 58275-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 58275-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 58275-2019.docx", "A 58275-2019")</f>
         <v/>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3522,27 +3522,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 64121-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 64121-2019.xlsx", "A 64121-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 64121-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 64121-2019.png", "A 64121-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 64121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 64121-2019.docx", "A 64121-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 64121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 64121-2019.docx", "A 64121-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 64121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 64121-2019.docx", "A 64121-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 64121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 64121-2019.docx", "A 64121-2019")</f>
         <v/>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3607,27 +3607,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 64120-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 64120-2019.xlsx", "A 64120-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 64120-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 64120-2019.png", "A 64120-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 64120-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 64120-2019.docx", "A 64120-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 64120-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 64120-2019.docx", "A 64120-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 64120-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 64120-2019.docx", "A 64120-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 64120-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 64120-2019.docx", "A 64120-2019")</f>
         <v/>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,27 +3697,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 47009-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 47009-2020.xlsx", "A 47009-2020")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 47009-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 47009-2020.png", "A 47009-2020")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 47009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 47009-2020.docx", "A 47009-2020")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 47009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 47009-2020.docx", "A 47009-2020")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 47009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 47009-2020.docx", "A 47009-2020")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 47009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 47009-2020.docx", "A 47009-2020")</f>
         <v/>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3782,27 +3782,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 66329-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 66329-2020.xlsx", "A 66329-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 66329-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 66329-2020.png", "A 66329-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 66329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 66329-2020.docx", "A 66329-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 66329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 66329-2020.docx", "A 66329-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 66329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 66329-2020.docx", "A 66329-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 66329-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 66329-2020.docx", "A 66329-2020")</f>
         <v/>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3867,27 +3867,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 3871-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 3871-2021.xlsx", "A 3871-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 3871-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 3871-2021.png", "A 3871-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 3871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 3871-2021.docx", "A 3871-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 3871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 3871-2021.docx", "A 3871-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 3871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 3871-2021.docx", "A 3871-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 3871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 3871-2021.docx", "A 3871-2021")</f>
         <v/>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3952,27 +3952,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 12785-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 12785-2021.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 12785-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 12785-2021.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 12785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 12785-2021.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 12785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 12785-2021.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 12785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 12785-2021.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 12785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 12785-2021.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4037,27 +4037,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 14789-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 14789-2021.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 14789-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 14789-2021.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 14789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 14789-2021.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 14789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 14789-2021.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 14789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 14789-2021.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 14789-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 14789-2021.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4122,27 +4122,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 10292-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 10292-2022.xlsx", "A 10292-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 10292-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 10292-2022.png", "A 10292-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 10292-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 10292-2022.docx", "A 10292-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 10292-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 10292-2022.docx", "A 10292-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 10292-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 10292-2022.docx", "A 10292-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 10292-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 10292-2022.docx", "A 10292-2022")</f>
         <v/>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4207,27 +4207,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 24096-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 24096-2022.xlsx", "A 24096-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 24096-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 24096-2022.png", "A 24096-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 24096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 24096-2022.docx", "A 24096-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 24096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 24096-2022.docx", "A 24096-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 24096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 24096-2022.docx", "A 24096-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 24096-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 24096-2022.docx", "A 24096-2022")</f>
         <v/>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4297,27 +4297,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 31295-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 31295-2022.xlsx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 31295-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 31295-2022.png", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 31295-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 31295-2022.docx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 31295-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 31295-2022.docx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 31295-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 31295-2022.docx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 31295-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 31295-2022.docx", "A 31295-2022")</f>
         <v/>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4382,27 +4382,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 9745-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 9745-2023.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 9745-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 9745-2023.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 9745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 9745-2023.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 9745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 9745-2023.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 9745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 9745-2023.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 9745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 9745-2023.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4467,27 +4467,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 16173-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 16173-2023.xlsx", "A 16173-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 16173-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 16173-2023.png", "A 16173-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 16173-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 16173-2023.docx", "A 16173-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 16173-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 16173-2023.docx", "A 16173-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 16173-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 16173-2023.docx", "A 16173-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 16173-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 16173-2023.docx", "A 16173-2023")</f>
         <v/>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4552,27 +4552,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 24704-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 24704-2023.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 24704-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 24704-2023.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 24704-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 24704-2023.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 24704-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 24704-2023.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 24704-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 24704-2023.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 24704-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 24704-2023.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4637,27 +4637,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 24701-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/artfynd/A 24701-2023.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 24701-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/kartor/A 24701-2023.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 24701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomål/A 24701-2023.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 24701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/klagomålsmail/A 24701-2023.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 24701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsyn/A 24701-2023.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 24701-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BORGHOLM/tillsynsmail/A 24701-2023.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -888,10 +888,10 @@
         <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -925,6 +925,7 @@
 Guldlockmossa
 Murgröna
 Nästrot
+Skogsknipprot
 Svavelriska
 Sårläka
 Blåsippa</t>
@@ -965,7 +966,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1059,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1156,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,7 +1246,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1336,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1431,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1525,7 +1526,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,7 +1615,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,7 +1709,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,7 +1803,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1890,7 +1891,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1978,7 +1979,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2067,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2154,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2246,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2338,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2425,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2511,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,7 +2602,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2692,7 +2693,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2783,7 +2784,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2869,7 +2870,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2960,7 +2961,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3046,7 +3047,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3131,7 +3132,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3217,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3302,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3386,7 +3387,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3471,7 +3472,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3557,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3641,7 +3642,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3732,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3816,7 +3817,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3901,7 +3902,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3986,7 +3987,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4072,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4157,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4242,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4331,7 +4332,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4417,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4501,7 +4502,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4586,7 +4587,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4671,7 +4672,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4728,7 +4729,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4785,7 +4786,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4842,7 +4843,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4899,7 +4900,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4956,7 +4957,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5013,7 +5014,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5070,7 +5071,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5132,7 +5133,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5189,7 +5190,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5246,7 +5247,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5303,7 +5304,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5360,7 +5361,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5417,7 +5418,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5474,7 +5475,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5531,7 +5532,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5588,7 +5589,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5645,7 +5646,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5702,7 +5703,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5759,7 +5760,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5816,7 +5817,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5873,7 +5874,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5930,7 +5931,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5987,7 +5988,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6044,7 +6045,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6101,7 +6102,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6158,7 +6159,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6220,7 +6221,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6277,7 +6278,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6334,7 +6335,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6396,7 +6397,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6458,7 +6459,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6520,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6582,7 +6583,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6644,7 +6645,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6707,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6769,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6830,7 +6831,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6892,7 +6893,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6954,7 +6955,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7016,7 +7017,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7078,7 +7079,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7135,7 +7136,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7192,7 +7193,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7249,7 +7250,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7306,7 +7307,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7363,7 +7364,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7420,7 +7421,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7477,7 +7478,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7539,7 +7540,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7601,7 +7602,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7658,7 +7659,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7715,7 +7716,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7772,7 +7773,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7829,7 +7830,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7886,7 +7887,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7943,7 +7944,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8000,7 +8001,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8057,7 +8058,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8114,7 +8115,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8171,7 +8172,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8233,7 +8234,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8290,7 +8291,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8347,7 +8348,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8404,7 +8405,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8461,7 +8462,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8523,7 +8524,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8585,7 +8586,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8647,7 +8648,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8709,7 +8710,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8771,7 +8772,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8833,7 +8834,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8895,7 +8896,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8952,7 +8953,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9009,7 +9010,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9066,7 +9067,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9123,7 +9124,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9180,7 +9181,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9237,7 +9238,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9294,7 +9295,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9351,7 +9352,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9408,7 +9409,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9465,7 +9466,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>43909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43525</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>44225</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44370</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44796</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44130</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44459</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44144</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>44783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45027</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43403</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44781</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44796</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43396</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43403</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>43592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43762</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>43770</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43796</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43796</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44091</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44176</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44622</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44725</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44772</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44984</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45027</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>45084</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>43403</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>43403</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>43423</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43423</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43483</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43612</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43635</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43720</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43805</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43812</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43818</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43818</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43882</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43899</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43917</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43962</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43962</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43964</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44070</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44137</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44137</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>44137</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>44137</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44137</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>44137</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>44137</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>44137</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44137</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44144</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>44144</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>44153</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44172</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>44172</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44273</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44301</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44370</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44370</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44428</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44428</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44456</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>44467</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>44482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>44501</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>44623</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44642</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44725</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44747</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44776</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44795</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44951</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44953</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44953</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44973</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
         <v>44974</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45005</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45107</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
